--- a/doc/comparison_matrix_pic.xlsx
+++ b/doc/comparison_matrix_pic.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16440" windowHeight="4851"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="16440" windowHeight="4851"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -986,8 +986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>

--- a/doc/comparison_matrix_pic.xlsx
+++ b/doc/comparison_matrix_pic.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="16440" windowHeight="4851"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16440" windowHeight="4851"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -420,23 +420,9 @@
   </cellStyles>
   <dxfs count="14">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -480,9 +466,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -522,7 +522,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -673,15 +673,15 @@
     <tableColumn id="4" name="MCU" dataDxfId="9" dataCellStyle="Currency"/>
     <tableColumn id="5" name="MCU Speed" dataDxfId="8" dataCellStyle="Currency"/>
     <tableColumn id="6" name="MCU Package"/>
-    <tableColumn id="7" name="Program Memory" dataDxfId="2" dataCellStyle="Currency"/>
-    <tableColumn id="8" name="RAM" dataDxfId="0" dataCellStyle="Currency"/>
-    <tableColumn id="9" name="External Memory" dataDxfId="1" dataCellStyle="Currency"/>
-    <tableColumn id="10" name="External Osc" dataDxfId="7" dataCellStyle="Currency"/>
-    <tableColumn id="11" name="Ethernet" dataDxfId="6" dataCellStyle="Currency"/>
+    <tableColumn id="7" name="Program Memory" dataDxfId="7" dataCellStyle="Currency"/>
+    <tableColumn id="8" name="RAM" dataDxfId="6" dataCellStyle="Currency"/>
+    <tableColumn id="9" name="External Memory" dataDxfId="5" dataCellStyle="Currency"/>
+    <tableColumn id="10" name="External Osc" dataDxfId="4" dataCellStyle="Currency"/>
+    <tableColumn id="11" name="Ethernet" dataDxfId="3" dataCellStyle="Currency"/>
     <tableColumn id="12" name="Max Res"/>
-    <tableColumn id="13" name="Dimensions (cm)" dataDxfId="5" dataCellStyle="Currency"/>
-    <tableColumn id="14" name="Notes" dataDxfId="4"/>
-    <tableColumn id="15" name="Reference" dataDxfId="3" dataCellStyle="Hyperlink"/>
+    <tableColumn id="13" name="Dimensions (cm)" dataDxfId="2" dataCellStyle="Currency"/>
+    <tableColumn id="14" name="Notes" dataDxfId="1"/>
+    <tableColumn id="15" name="Reference" dataDxfId="0" dataCellStyle="Hyperlink"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -986,8 +986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -998,13 +998,13 @@
     <col min="4" max="4" width="18.53515625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.53515625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.23046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.53515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.15234375" style="3" customWidth="1"/>
     <col min="8" max="8" width="8.84375" style="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.3046875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.69140625" style="3" customWidth="1"/>
     <col min="10" max="10" width="15.921875" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.53515625" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.61328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.3046875" style="1" customWidth="1"/>
     <col min="14" max="14" width="10.69140625" style="1" customWidth="1"/>
     <col min="15" max="15" width="23.84375" style="7" bestFit="1" customWidth="1"/>
   </cols>

--- a/doc/comparison_matrix_pic.xlsx
+++ b/doc/comparison_matrix_pic.xlsx
@@ -987,7 +987,7 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
